--- a/biology/Zoologie/Chihuahuanus_cazieri/Chihuahuanus_cazieri.xlsx
+++ b/biology/Zoologie/Chihuahuanus_cazieri/Chihuahuanus_cazieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chihuahuanus cazieri est une espèce de scorpions de la famille des Vaejovidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au Coahuila et au Nuevo León.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au Coahuila et au Nuevo León.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 45,8 mm et la femelle paratype 56,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 45,8 mm et la femelle paratype 56,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Vaejovis cazieri par Williams en 1968. Elle est placée dans le genre Kochius par Soleglad et Fet en 2008[3] puis dans le genre Chihuahuanus par González Santillán et Prendini en 2013[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Vaejovis cazieri par Williams en 1968. Elle est placée dans le genre Kochius par Soleglad et Fet en 2008 puis dans le genre Chihuahuanus par González Santillán et Prendini en 2013.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Mont A. Cazier[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Mont A. Cazier.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Williams, 1968 : « Scorpions from northern Mexico; five new species of Vejovis from Coahuila, Mexico. » Occasional Papers California Academy of Sciences, vol. 68, p. 1-24 (texte intégral).</t>
         </is>
